--- a/img_user/aumza/testrun/excel_table_summary.xlsx
+++ b/img_user/aumza/testrun/excel_table_summary.xlsx
@@ -50,16 +50,16 @@
     <t>braycurtis</t>
   </si>
   <si>
-    <t>S1_1_16s</t>
-  </si>
-  <si>
-    <t>S2_1_16s</t>
-  </si>
-  <si>
-    <t>S3_1_16s</t>
-  </si>
-  <si>
-    <t>S4_1_16s</t>
+    <t>S1_1_16s_S1</t>
+  </si>
+  <si>
+    <t>S2_1_16s_S3</t>
+  </si>
+  <si>
+    <t>S3_1_16s_S5</t>
+  </si>
+  <si>
+    <t>S4_1_16s_S7</t>
   </si>
 </sst>
 </file>
@@ -462,31 +462,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.264775</v>
+        <v>0.271663</v>
       </c>
       <c r="D2">
-        <v>0.443649</v>
+        <v>0.441652</v>
       </c>
       <c r="E2">
-        <v>0.05951</v>
+        <v>0.058678</v>
       </c>
       <c r="F2">
-        <v>0.015904</v>
+        <v>0.015006</v>
       </c>
       <c r="G2">
-        <v>0.04665</v>
+        <v>0.045786</v>
       </c>
       <c r="H2">
-        <v>0.112335</v>
+        <v>0.110852</v>
       </c>
       <c r="I2">
-        <v>0.097385</v>
+        <v>0.096022</v>
       </c>
       <c r="J2">
-        <v>0.127285</v>
+        <v>0.125681</v>
       </c>
       <c r="K2">
-        <v>0.220278</v>
+        <v>0.218367</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +497,31 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.501587</v>
+        <v>0.503165</v>
       </c>
       <c r="D3">
-        <v>0.740496</v>
+        <v>0.738333</v>
       </c>
       <c r="E3">
-        <v>0.92585</v>
+        <v>0.9265910000000001</v>
       </c>
       <c r="F3">
-        <v>0.155963</v>
+        <v>0.165411</v>
       </c>
       <c r="G3">
-        <v>0.42749</v>
+        <v>0.427246</v>
       </c>
       <c r="H3">
-        <v>0.961498</v>
+        <v>0.961897</v>
       </c>
       <c r="I3">
-        <v>0.957386</v>
+        <v>0.957834</v>
       </c>
       <c r="J3">
-        <v>0.9656090000000001</v>
+        <v>0.965959</v>
       </c>
       <c r="K3">
-        <v>0.892673</v>
+        <v>0.892531</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +532,31 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.530159</v>
+        <v>0.528481</v>
       </c>
       <c r="D4">
-        <v>0.749153</v>
+        <v>0.749158</v>
       </c>
       <c r="E4">
-        <v>0.951237</v>
+        <v>0.9510459999999999</v>
       </c>
       <c r="F4">
-        <v>0.135039</v>
+        <v>0.144253</v>
       </c>
       <c r="G4">
-        <v>0.444389</v>
+        <v>0.444809</v>
       </c>
       <c r="H4">
-        <v>0.975009</v>
+        <v>0.974909</v>
       </c>
       <c r="I4">
-        <v>0.972322</v>
+        <v>0.972187</v>
       </c>
       <c r="J4">
-        <v>0.977696</v>
+        <v>0.977631</v>
       </c>
       <c r="K4">
-        <v>0.901053</v>
+        <v>0.90139</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +567,31 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.295302</v>
+        <v>0.294785</v>
       </c>
       <c r="D5">
-        <v>0.510109</v>
+        <v>0.507911</v>
       </c>
       <c r="E5">
-        <v>0.30952</v>
+        <v>0.306811</v>
       </c>
       <c r="F5">
-        <v>0.032276</v>
+        <v>0.034606</v>
       </c>
       <c r="G5">
-        <v>0.107111</v>
+        <v>0.103889</v>
       </c>
       <c r="H5">
-        <v>0.472723</v>
+        <v>0.469557</v>
       </c>
       <c r="I5">
-        <v>0.450679</v>
+        <v>0.447444</v>
       </c>
       <c r="J5">
-        <v>0.494766</v>
+        <v>0.49167</v>
       </c>
       <c r="K5">
-        <v>0.432791</v>
+        <v>0.430764</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +602,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.245863</v>
+        <v>0.236534</v>
       </c>
       <c r="D6">
-        <v>0.481301</v>
+        <v>0.45937</v>
       </c>
       <c r="E6">
-        <v>0.281107</v>
+        <v>0.277881</v>
       </c>
       <c r="F6">
-        <v>0.015703</v>
+        <v>0.013081</v>
       </c>
       <c r="G6">
-        <v>0.07696600000000001</v>
+        <v>0.07432</v>
       </c>
       <c r="H6">
-        <v>0.43885</v>
+        <v>0.43491</v>
       </c>
       <c r="I6">
-        <v>0.414958</v>
+        <v>0.411045</v>
       </c>
       <c r="J6">
-        <v>0.462743</v>
+        <v>0.458774</v>
       </c>
       <c r="K6">
-        <v>0.409192</v>
+        <v>0.404571</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +637,31 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.387302</v>
+        <v>0.408228</v>
       </c>
       <c r="D7">
-        <v>0.695103</v>
+        <v>0.703645</v>
       </c>
       <c r="E7">
-        <v>0.905475</v>
+        <v>0.905819</v>
       </c>
       <c r="F7">
-        <v>0.187343</v>
+        <v>0.19038</v>
       </c>
       <c r="G7">
-        <v>0.461173</v>
+        <v>0.467485</v>
       </c>
       <c r="H7">
-        <v>0.950393</v>
+        <v>0.950582</v>
       </c>
       <c r="I7">
-        <v>0.9461039999999999</v>
+        <v>0.946285</v>
       </c>
       <c r="J7">
-        <v>0.954682</v>
+        <v>0.95488</v>
       </c>
       <c r="K7">
-        <v>0.839788</v>
+        <v>0.84071</v>
       </c>
     </row>
   </sheetData>

--- a/img_user/aumza/testrun/excel_table_summary.xlsx
+++ b/img_user/aumza/testrun/excel_table_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>comparison</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>braycurtis</t>
-  </si>
-  <si>
-    <t>S1_1_16s_S1</t>
-  </si>
-  <si>
-    <t>S2_1_16s_S3</t>
-  </si>
-  <si>
-    <t>S3_1_16s_S5</t>
-  </si>
-  <si>
-    <t>S4_1_16s_S7</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,216 +442,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0.271663</v>
-      </c>
-      <c r="D2">
-        <v>0.441652</v>
-      </c>
-      <c r="E2">
-        <v>0.058678</v>
-      </c>
-      <c r="F2">
-        <v>0.015006</v>
-      </c>
-      <c r="G2">
-        <v>0.045786</v>
-      </c>
-      <c r="H2">
-        <v>0.110852</v>
-      </c>
-      <c r="I2">
-        <v>0.096022</v>
-      </c>
-      <c r="J2">
-        <v>0.125681</v>
-      </c>
-      <c r="K2">
-        <v>0.218367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0.503165</v>
-      </c>
-      <c r="D3">
-        <v>0.738333</v>
-      </c>
-      <c r="E3">
-        <v>0.9265910000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.165411</v>
-      </c>
-      <c r="G3">
-        <v>0.427246</v>
-      </c>
-      <c r="H3">
-        <v>0.961897</v>
-      </c>
-      <c r="I3">
-        <v>0.957834</v>
-      </c>
-      <c r="J3">
-        <v>0.965959</v>
-      </c>
-      <c r="K3">
-        <v>0.892531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.528481</v>
-      </c>
-      <c r="D4">
-        <v>0.749158</v>
-      </c>
-      <c r="E4">
-        <v>0.9510459999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.144253</v>
-      </c>
-      <c r="G4">
-        <v>0.444809</v>
-      </c>
-      <c r="H4">
-        <v>0.974909</v>
-      </c>
-      <c r="I4">
-        <v>0.972187</v>
-      </c>
-      <c r="J4">
-        <v>0.977631</v>
-      </c>
-      <c r="K4">
-        <v>0.90139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.294785</v>
-      </c>
-      <c r="D5">
-        <v>0.507911</v>
-      </c>
-      <c r="E5">
-        <v>0.306811</v>
-      </c>
-      <c r="F5">
-        <v>0.034606</v>
-      </c>
-      <c r="G5">
-        <v>0.103889</v>
-      </c>
-      <c r="H5">
-        <v>0.469557</v>
-      </c>
-      <c r="I5">
-        <v>0.447444</v>
-      </c>
-      <c r="J5">
-        <v>0.49167</v>
-      </c>
-      <c r="K5">
-        <v>0.430764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0.236534</v>
-      </c>
-      <c r="D6">
-        <v>0.45937</v>
-      </c>
-      <c r="E6">
-        <v>0.277881</v>
-      </c>
-      <c r="F6">
-        <v>0.013081</v>
-      </c>
-      <c r="G6">
-        <v>0.07432</v>
-      </c>
-      <c r="H6">
-        <v>0.43491</v>
-      </c>
-      <c r="I6">
-        <v>0.411045</v>
-      </c>
-      <c r="J6">
-        <v>0.458774</v>
-      </c>
-      <c r="K6">
-        <v>0.404571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0.408228</v>
-      </c>
-      <c r="D7">
-        <v>0.703645</v>
-      </c>
-      <c r="E7">
-        <v>0.905819</v>
-      </c>
-      <c r="F7">
-        <v>0.19038</v>
-      </c>
-      <c r="G7">
-        <v>0.467485</v>
-      </c>
-      <c r="H7">
-        <v>0.950582</v>
-      </c>
-      <c r="I7">
-        <v>0.946285</v>
-      </c>
-      <c r="J7">
-        <v>0.95488</v>
-      </c>
-      <c r="K7">
-        <v>0.84071</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
